--- a/db/data_base.xlsx
+++ b/db/data_base.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="53">
   <si>
     <t>last_name</t>
   </si>
@@ -46,10 +46,13 @@
     <t>default_coordinates</t>
   </si>
   <si>
-    <t>contact_number</t>
-  </si>
-  <si>
-    <t>driver_license</t>
+    <t>abc1234</t>
+  </si>
+  <si>
+    <t>1234abc</t>
+  </si>
+  <si>
+    <t>car_license_num</t>
   </si>
   <si>
     <t>car_type</t>
@@ -509,8 +512,8 @@
       <c r="D2" s="1">
         <v>2345.0</v>
       </c>
-      <c r="E2" s="1">
-        <v>2345.0</v>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="F2" s="1">
         <v>1.0</v>
@@ -519,9 +522,6 @@
         <v>123.0</v>
       </c>
       <c r="H2" s="1">
-        <v>123.0</v>
-      </c>
-      <c r="I2" s="1">
         <v>123.0</v>
       </c>
     </row>
@@ -538,8 +538,8 @@
       <c r="D3" s="1">
         <v>2345.0</v>
       </c>
-      <c r="E3" s="1">
-        <v>2345.0</v>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="F3" s="1">
         <v>2.0</v>
@@ -548,9 +548,6 @@
         <v>123.0</v>
       </c>
       <c r="H3" s="1">
-        <v>123.0</v>
-      </c>
-      <c r="I3" s="1">
         <v>123.0</v>
       </c>
     </row>
@@ -567,8 +564,8 @@
       <c r="D4" s="1">
         <v>2345.0</v>
       </c>
-      <c r="E4" s="1">
-        <v>2345.0</v>
+      <c r="E4" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="F4" s="1">
         <v>3.0</v>
@@ -577,9 +574,6 @@
         <v>123.0</v>
       </c>
       <c r="H4" s="1">
-        <v>123.0</v>
-      </c>
-      <c r="I4" s="1">
         <v>123.0</v>
       </c>
     </row>
@@ -596,8 +590,8 @@
       <c r="D5" s="1">
         <v>2345.0</v>
       </c>
-      <c r="E5" s="1">
-        <v>2345.0</v>
+      <c r="E5" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="F5" s="1">
         <v>4.0</v>
@@ -606,9 +600,6 @@
         <v>123.0</v>
       </c>
       <c r="H5" s="1">
-        <v>123.0</v>
-      </c>
-      <c r="I5" s="1">
         <v>123.0</v>
       </c>
     </row>
@@ -644,13 +635,13 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2">
@@ -666,8 +657,8 @@
       <c r="D2" s="1">
         <v>1234.0</v>
       </c>
-      <c r="E2" s="1">
-        <v>1234.0</v>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="F2" s="1">
         <v>1234.0</v>
@@ -692,8 +683,8 @@
       <c r="D3" s="1">
         <v>1234.0</v>
       </c>
-      <c r="E3" s="1">
-        <v>1234.0</v>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="F3" s="1">
         <v>1234.0</v>
@@ -718,8 +709,8 @@
       <c r="D4" s="1">
         <v>1234.0</v>
       </c>
-      <c r="E4" s="1">
-        <v>1234.0</v>
+      <c r="E4" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="F4" s="1">
         <v>1234.0</v>
@@ -753,46 +744,46 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2">
@@ -803,16 +794,16 @@
         <v>0.2708333333333333</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I2" s="1">
         <v>20.0</v>
@@ -821,7 +812,7 @@
         <v>200.0</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M2" s="1">
         <v>1234.0</v>
@@ -835,16 +826,16 @@
         <v>0.3125</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I3" s="1">
         <v>32.0</v>
@@ -853,7 +844,7 @@
         <v>320.0</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M3" s="1">
         <v>1234.0</v>
@@ -867,16 +858,16 @@
         <v>0.3541666666666667</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I4" s="1">
         <v>45.0</v>
@@ -885,7 +876,7 @@
         <v>450.0</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M4" s="1">
         <v>1234.0</v>
@@ -899,16 +890,16 @@
         <v>0.6458333333333334</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I5" s="1">
         <v>10.0</v>
@@ -917,7 +908,7 @@
         <v>100.0</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M5" s="1">
         <v>1234.0</v>
@@ -931,16 +922,16 @@
         <v>0.8125</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I6" s="1">
         <v>6.0</v>
@@ -949,7 +940,7 @@
         <v>60.0</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M6" s="1">
         <v>1234.0</v>
@@ -972,7 +963,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2">
@@ -1012,7 +1003,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2">
@@ -1037,10 +1028,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2">
@@ -1068,15 +1059,15 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B2" s="1">
         <v>1.0</v>

--- a/db/data_base.xlsx
+++ b/db/data_base.xlsx
@@ -182,9 +182,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="dd/MM/yyyy"/>
+  <numFmts count="4">
+    <numFmt numFmtId="164" formatCode="yyyy&quot;-&quot;mm&quot;-&quot;dd"/>
     <numFmt numFmtId="165" formatCode="hh:mm"/>
+    <numFmt numFmtId="166" formatCode="dd/MM/yyyy"/>
+    <numFmt numFmtId="167" formatCode="&quot;: &quot;yymd"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -213,7 +215,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -226,6 +228,8 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="166" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="167" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -787,12 +791,8 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2">
-        <v>45017.0</v>
-      </c>
-      <c r="B2" s="3">
-        <v>0.2708333333333333</v>
-      </c>
+      <c r="A2" s="2"/>
+      <c r="B2" s="3"/>
       <c r="C2" s="1" t="s">
         <v>27</v>
       </c>
@@ -811,6 +811,9 @@
       <c r="J2" s="1">
         <v>200.0</v>
       </c>
+      <c r="K2" s="1">
+        <v>123.0</v>
+      </c>
       <c r="L2" s="1" t="s">
         <v>31</v>
       </c>
@@ -819,12 +822,8 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2">
-        <v>45018.0</v>
-      </c>
-      <c r="B3" s="3">
-        <v>0.3125</v>
-      </c>
+      <c r="A3" s="2"/>
+      <c r="B3" s="3"/>
       <c r="C3" s="1" t="s">
         <v>32</v>
       </c>
@@ -843,6 +842,9 @@
       <c r="J3" s="1">
         <v>320.0</v>
       </c>
+      <c r="K3" s="1">
+        <v>123.0</v>
+      </c>
       <c r="L3" s="1" t="s">
         <v>31</v>
       </c>
@@ -851,12 +853,8 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2">
-        <v>45019.0</v>
-      </c>
-      <c r="B4" s="3">
-        <v>0.3541666666666667</v>
-      </c>
+      <c r="A4" s="2"/>
+      <c r="B4" s="3"/>
       <c r="C4" s="1" t="s">
         <v>36</v>
       </c>
@@ -875,6 +873,9 @@
       <c r="J4" s="1">
         <v>450.0</v>
       </c>
+      <c r="K4" s="1">
+        <v>123.0</v>
+      </c>
       <c r="L4" s="1" t="s">
         <v>40</v>
       </c>
@@ -883,12 +884,8 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2">
-        <v>45020.0</v>
-      </c>
-      <c r="B5" s="3">
-        <v>0.6458333333333334</v>
-      </c>
+      <c r="A5" s="2"/>
+      <c r="B5" s="3"/>
       <c r="C5" s="1" t="s">
         <v>38</v>
       </c>
@@ -907,6 +904,9 @@
       <c r="J5" s="1">
         <v>100.0</v>
       </c>
+      <c r="K5" s="1">
+        <v>123.0</v>
+      </c>
       <c r="L5" s="1" t="s">
         <v>31</v>
       </c>
@@ -915,12 +915,8 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2">
-        <v>45021.0</v>
-      </c>
-      <c r="B6" s="3">
-        <v>0.8125</v>
-      </c>
+      <c r="A6" s="2"/>
+      <c r="B6" s="3"/>
       <c r="C6" s="1" t="s">
         <v>44</v>
       </c>
@@ -939,12 +935,27 @@
       <c r="J6" s="1">
         <v>60.0</v>
       </c>
+      <c r="K6" s="1">
+        <v>123.0</v>
+      </c>
       <c r="L6" s="1" t="s">
         <v>40</v>
       </c>
       <c r="M6" s="1">
         <v>1234.0</v>
       </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="4"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="4"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="5"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="5"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/db/data_base.xlsx
+++ b/db/data_base.xlsx
@@ -811,9 +811,6 @@
       <c r="J2" s="1">
         <v>200.0</v>
       </c>
-      <c r="K2" s="1">
-        <v>123.0</v>
-      </c>
       <c r="L2" s="1" t="s">
         <v>31</v>
       </c>
@@ -842,9 +839,6 @@
       <c r="J3" s="1">
         <v>320.0</v>
       </c>
-      <c r="K3" s="1">
-        <v>123.0</v>
-      </c>
       <c r="L3" s="1" t="s">
         <v>31</v>
       </c>
@@ -873,9 +867,6 @@
       <c r="J4" s="1">
         <v>450.0</v>
       </c>
-      <c r="K4" s="1">
-        <v>123.0</v>
-      </c>
       <c r="L4" s="1" t="s">
         <v>40</v>
       </c>
@@ -904,9 +895,6 @@
       <c r="J5" s="1">
         <v>100.0</v>
       </c>
-      <c r="K5" s="1">
-        <v>123.0</v>
-      </c>
       <c r="L5" s="1" t="s">
         <v>31</v>
       </c>
@@ -934,9 +922,6 @@
       </c>
       <c r="J6" s="1">
         <v>60.0</v>
-      </c>
-      <c r="K6" s="1">
-        <v>123.0</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>40</v>

--- a/db/data_base.xlsx
+++ b/db/data_base.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="5"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="users"/>
@@ -575,7 +575,7 @@
   </sheetPr>
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1252,7 +1252,7 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/db/data_base.xlsx
+++ b/db/data_base.xlsx
@@ -4,23 +4,22 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="5"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="users"/>
     <sheet r:id="rId2" sheetId="2" name="drivers"/>
     <sheet r:id="rId3" sheetId="3" name="orders"/>
-    <sheet r:id="rId4" sheetId="4" name="car_types"/>
-    <sheet r:id="rId5" sheetId="5" name="payment_method"/>
-    <sheet r:id="rId6" sheetId="6" name="order_animals"/>
-    <sheet r:id="rId7" sheetId="7" name="animals"/>
+    <sheet r:id="rId4" sheetId="4" name="payment_method"/>
+    <sheet r:id="rId5" sheetId="5" name="order_animals"/>
+    <sheet r:id="rId6" sheetId="6" name="animals"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="89">
   <si>
     <t>animals_name</t>
   </si>
@@ -28,7 +27,25 @@
     <t>price</t>
   </si>
   <si>
-    <t>dsfsdf</t>
+    <t>cat</t>
+  </si>
+  <si>
+    <t>dog</t>
+  </si>
+  <si>
+    <t>chicken</t>
+  </si>
+  <si>
+    <t>duck</t>
+  </si>
+  <si>
+    <t>goose</t>
+  </si>
+  <si>
+    <t>turtle</t>
+  </si>
+  <si>
+    <t>sea creatures</t>
   </si>
   <si>
     <t>animals_amount</t>
@@ -40,136 +57,214 @@
     <t>method</t>
   </si>
   <si>
+    <t>VISA</t>
+  </si>
+  <si>
+    <t>pick_up_date</t>
+  </si>
+  <si>
+    <t>pick_up_time</t>
+  </si>
+  <si>
+    <t>pick_up_district</t>
+  </si>
+  <si>
+    <t>pick_up_address</t>
+  </si>
+  <si>
+    <t>pick_up_coordinates</t>
+  </si>
+  <si>
+    <t>deliver_district</t>
+  </si>
+  <si>
+    <t>deliver_address</t>
+  </si>
+  <si>
+    <t>deliver_coordinates</t>
+  </si>
+  <si>
+    <t>distance_km</t>
+  </si>
+  <si>
+    <t>distance_price</t>
+  </si>
+  <si>
+    <t>reference_code</t>
+  </si>
+  <si>
+    <t>orders_status</t>
+  </si>
+  <si>
+    <t>token</t>
+  </si>
+  <si>
+    <t>remarks</t>
+  </si>
+  <si>
+    <t>油尖旺區</t>
+  </si>
+  <si>
+    <t>Cityplaza, 18 Tai Koo Shing Rd, Quarry Bay</t>
+  </si>
+  <si>
+    <t>灣仔區</t>
+  </si>
+  <si>
+    <t>Times Square, 1 Matheson St, Causeway Bay</t>
+  </si>
+  <si>
+    <t>f686c2a9-233d-4b90-978f-6fa28973d43b</t>
+  </si>
+  <si>
+    <t>completed</t>
+  </si>
+  <si>
+    <t>de47e3d8-338b-4b4c-bc13-3ffd6c8106f3</t>
+  </si>
+  <si>
+    <t>my dog is very cute</t>
+  </si>
+  <si>
+    <t>中西區</t>
+  </si>
+  <si>
+    <t>Pacific Place, 88 Queensway, Admiralty</t>
+  </si>
+  <si>
+    <t>LANDMARK, 15 Queen's Road Central, Central</t>
+  </si>
+  <si>
+    <t>52afb9e4-a647-4417-90d2-8351ee950313</t>
+  </si>
+  <si>
+    <t>641a1732-f6e1-4385-94e9-8e24f2c17429</t>
+  </si>
+  <si>
+    <t>be careful of my angry bird</t>
+  </si>
+  <si>
+    <t>九龍城區</t>
+  </si>
+  <si>
+    <t>Festival Walk, 80 Tat Chee Ave, Kowloon Tong</t>
+  </si>
+  <si>
+    <t>荃灣區</t>
+  </si>
+  <si>
+    <t>D_PARK,  398 Castle Peak Rd - Tsuen Wan</t>
+  </si>
+  <si>
+    <t>db6abe0e-6b32-4436-b7de-db1c7fa953c3</t>
+  </si>
+  <si>
+    <t>cancelled</t>
+  </si>
+  <si>
+    <t>f25d018e-6f07-46de-a34d-4d8b9456883f</t>
+  </si>
+  <si>
+    <t>pls send my cat to the address before 6pm</t>
+  </si>
+  <si>
+    <t>Nina_Mall, No.8 Yeung Uk Rd, Tsuen Wan</t>
+  </si>
+  <si>
+    <t>葵青區</t>
+  </si>
+  <si>
+    <t>Maritime Square, 33 Tsing King Rd, Tsing Yi</t>
+  </si>
+  <si>
+    <t>917542c7-7c2e-4a2d-a256-199b17e7261b</t>
+  </si>
+  <si>
+    <t>b57ccb86-8291-415f-8e8e-50d8f18eecfd</t>
+  </si>
+  <si>
+    <t>thx driver</t>
+  </si>
+  <si>
+    <t>The ONE, 100 Nathan Rd, Tsim Sha Tsui</t>
+  </si>
+  <si>
+    <t>Citywalk,1 Yeung Uk Rd, Tsuen Wan</t>
+  </si>
+  <si>
+    <t>bf54a164-46ee-45ec-a776-6e690994b191</t>
+  </si>
+  <si>
+    <t>97689a33-ee84-44c6-a2b1-d40e5f0fc05f</t>
+  </si>
+  <si>
+    <t>last_name</t>
+  </si>
+  <si>
+    <t>first_name</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>contact_num</t>
+  </si>
+  <si>
+    <t>car_license_num</t>
+  </si>
+  <si>
     <t>car_type</t>
   </si>
   <si>
-    <t>pick_up_date</t>
-  </si>
-  <si>
-    <t>pick_up_time</t>
-  </si>
-  <si>
-    <t>pick_up_district</t>
-  </si>
-  <si>
-    <t>pick_up_address</t>
-  </si>
-  <si>
-    <t>pick_up_coordinates</t>
-  </si>
-  <si>
-    <t>deliver_district</t>
-  </si>
-  <si>
-    <t>deliver_address</t>
-  </si>
-  <si>
-    <t>deliver_coordinates</t>
-  </si>
-  <si>
-    <t>distance_km</t>
-  </si>
-  <si>
-    <t>distance_price</t>
-  </si>
-  <si>
-    <t>reference_code</t>
-  </si>
-  <si>
-    <t>orders_status</t>
-  </si>
-  <si>
-    <t>token</t>
-  </si>
-  <si>
-    <t>remarks</t>
-  </si>
-  <si>
-    <t>Quarry_Bay</t>
-  </si>
-  <si>
-    <t>Cityplaza, 18 Tai Koo Shing Rd, Quarry Bay</t>
-  </si>
-  <si>
-    <t>Causeway_Bay</t>
-  </si>
-  <si>
-    <t>Times Square, 1 Matheson St, Causeway Bay</t>
-  </si>
-  <si>
-    <t>completed</t>
-  </si>
-  <si>
-    <t>Admiralty</t>
-  </si>
-  <si>
-    <t>Pacific Place, 88 Queensway, Admiralty</t>
-  </si>
-  <si>
-    <t>Central</t>
-  </si>
-  <si>
-    <t>LANDMARK, 15 Queen's Road Central, Central</t>
-  </si>
-  <si>
-    <t>Kowloon_Tong</t>
-  </si>
-  <si>
-    <t>Festival Walk, 80 Tat Chee Ave, Kowloon Tong</t>
-  </si>
-  <si>
-    <t>Tsuen_Wan</t>
-  </si>
-  <si>
-    <t>D_PARK,  398 Castle Peak Rd - Tsuen Wan</t>
-  </si>
-  <si>
-    <t>cancelled</t>
-  </si>
-  <si>
-    <t>Nina_Mall, No.8 Yeung Uk Rd, Tsuen Wan</t>
-  </si>
-  <si>
-    <t>Tsing_Yi</t>
-  </si>
-  <si>
-    <t>Maritime Square, 33 Tsing King Rd, Tsing Yi</t>
-  </si>
-  <si>
-    <t>Tsim_Sha_Tsui</t>
-  </si>
-  <si>
-    <t>The ONE, 100 Nathan Rd, Tsim Sha Tsui</t>
-  </si>
-  <si>
-    <t>Citywalk,1 Yeung Uk Rd, Tsuen Wan</t>
-  </si>
-  <si>
-    <t>last_name</t>
-  </si>
-  <si>
-    <t>first_name</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>contact_num</t>
-  </si>
-  <si>
-    <t>car_license_num</t>
-  </si>
-  <si>
-    <t>abc1234</t>
-  </si>
-  <si>
-    <t>1234abc</t>
+    <t>Wong</t>
+  </si>
+  <si>
+    <t>Julia</t>
+  </si>
+  <si>
+    <t>Miss</t>
+  </si>
+  <si>
+    <t>beyourdetective@gmail.com</t>
+  </si>
+  <si>
+    <t>123abc</t>
+  </si>
+  <si>
+    <t>JW 1234</t>
+  </si>
+  <si>
+    <t>Van</t>
+  </si>
+  <si>
+    <t>Kam</t>
+  </si>
+  <si>
+    <t>Chinny</t>
+  </si>
+  <si>
+    <t>learning20150133@gmail.com</t>
+  </si>
+  <si>
+    <t>CK 1234</t>
+  </si>
+  <si>
+    <t>Chow</t>
+  </si>
+  <si>
+    <t>Yannes</t>
+  </si>
+  <si>
+    <t>yannes.0828@gmail.com</t>
+  </si>
+  <si>
+    <t>YC 1234</t>
   </si>
   <si>
     <t>default_district</t>
@@ -179,6 +274,18 @@
   </si>
   <si>
     <t>default_coordinates</t>
+  </si>
+  <si>
+    <t>離島區</t>
+  </si>
+  <si>
+    <t>Tung Chung somewhere</t>
+  </si>
+  <si>
+    <t>Tsuen Wan somewhere</t>
+  </si>
+  <si>
+    <t>Tai Wo Hau somewhere</t>
   </si>
 </sst>
 </file>
@@ -233,7 +340,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="19">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -262,14 +369,32 @@
     <xf xfId="0" numFmtId="166" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="167" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -573,159 +698,132 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="5" width="15.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="4" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="4" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="4" width="15.005" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="5" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="18" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="4" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="4" width="19.14785714285714" customWidth="1" bestFit="1"/>
     <col min="9" max="9" style="4" width="17.290714285714284" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
+      <c r="A1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
+      <c r="A2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" s="17">
+        <v>51170071</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I2" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
+      <c r="A3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" s="17">
+        <v>93493702</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="H3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I3" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
+      <c r="A4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" s="17">
+        <v>51906988</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3">
-        <v>1234</v>
-      </c>
-      <c r="C2" s="3">
-        <v>2345</v>
-      </c>
-      <c r="D2" s="3">
-        <v>2345</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" s="3">
-        <v>1</v>
-      </c>
-      <c r="G2" s="3">
-        <v>123</v>
-      </c>
-      <c r="H2" s="3">
-        <v>123</v>
-      </c>
-      <c r="I2" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3">
-        <v>1234</v>
-      </c>
-      <c r="C3" s="3">
-        <v>2345</v>
-      </c>
-      <c r="D3" s="3">
-        <v>2345</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F3" s="3">
-        <v>2</v>
-      </c>
-      <c r="G3" s="3">
-        <v>123</v>
-      </c>
-      <c r="H3" s="3">
-        <v>123</v>
-      </c>
-      <c r="I3" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3">
-        <v>1234</v>
-      </c>
-      <c r="C4" s="3">
-        <v>2345</v>
-      </c>
-      <c r="D4" s="3">
-        <v>2345</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F4" s="3">
-        <v>3</v>
-      </c>
-      <c r="G4" s="3">
-        <v>123</v>
-      </c>
-      <c r="H4" s="3">
-        <v>123</v>
+      <c r="H4" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="I4" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3">
-        <v>1234</v>
-      </c>
-      <c r="C5" s="3">
-        <v>2345</v>
-      </c>
-      <c r="D5" s="3">
-        <v>2345</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" s="3">
-        <v>4</v>
-      </c>
-      <c r="G5" s="3">
-        <v>123</v>
-      </c>
-      <c r="H5" s="3">
-        <v>123</v>
-      </c>
-      <c r="I5" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -743,118 +841,118 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="4" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="4" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="4" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="5" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="18" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="4" width="13.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="3">
-        <v>1234</v>
-      </c>
-      <c r="B2" s="3">
-        <v>1234</v>
-      </c>
-      <c r="C2" s="3">
-        <v>1234</v>
-      </c>
-      <c r="D2" s="3">
-        <v>1234</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" s="3">
-        <v>1234</v>
-      </c>
-      <c r="G2" s="3">
-        <v>1234</v>
-      </c>
-      <c r="H2" s="3">
-        <v>1234</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="3">
-        <v>1234</v>
-      </c>
-      <c r="B3" s="3">
-        <v>1234</v>
-      </c>
-      <c r="C3" s="3">
-        <v>1234</v>
-      </c>
-      <c r="D3" s="3">
-        <v>1234</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F3" s="3">
-        <v>1234</v>
-      </c>
-      <c r="G3" s="3">
-        <v>1234</v>
-      </c>
-      <c r="H3" s="3">
-        <v>1234</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="3">
-        <v>1234</v>
-      </c>
-      <c r="B4" s="3">
-        <v>1234</v>
-      </c>
-      <c r="C4" s="3">
-        <v>1234</v>
-      </c>
-      <c r="D4" s="3">
-        <v>1234</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F4" s="3">
-        <v>1234</v>
-      </c>
-      <c r="G4" s="3">
-        <v>1234</v>
-      </c>
-      <c r="H4" s="3">
-        <v>1234</v>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
+      <c r="A1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
+      <c r="A2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" s="17">
+        <v>51170071</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
+      <c r="A3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" s="17">
+        <v>93493702</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
+      <c r="A4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" s="17">
+        <v>51906988</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -869,302 +967,310 @@
   </sheetPr>
   <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="13" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="14" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="4" width="13.005" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="4" width="38.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="4" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="4" width="13.005" customWidth="1" bestFit="1"/>
     <col min="7" max="7" style="4" width="37.14785714285715" customWidth="1" bestFit="1"/>
     <col min="8" max="8" style="4" width="17.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="15" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="15" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="4" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="4" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="4" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="4" width="13.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
+      <c r="A1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+        <v>26</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="21">
       <c r="A2" s="6"/>
       <c r="B2" s="7"/>
       <c r="C2" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E2" s="8"/>
       <c r="F2" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="H2" s="8"/>
       <c r="I2" s="3">
         <v>20</v>
       </c>
       <c r="J2" s="3">
-        <v>200</v>
-      </c>
-      <c r="K2" s="3">
-        <v>123</v>
+        <v>10</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M2" s="3">
-        <v>1234</v>
-      </c>
-      <c r="N2" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+        <v>32</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="21">
       <c r="A3" s="6"/>
       <c r="B3" s="7"/>
       <c r="C3" s="1" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H3" s="8"/>
       <c r="I3" s="3">
         <v>32</v>
       </c>
       <c r="J3" s="3">
-        <v>320</v>
-      </c>
-      <c r="K3" s="3">
-        <v>123</v>
+        <v>10</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M3" s="3">
-        <v>1234</v>
-      </c>
-      <c r="N3" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+        <v>32</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="21">
       <c r="A4" s="6"/>
       <c r="B4" s="7"/>
       <c r="C4" s="1" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="1" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H4" s="8"/>
       <c r="I4" s="3">
         <v>45</v>
       </c>
       <c r="J4" s="3">
-        <v>450</v>
-      </c>
-      <c r="K4" s="3">
-        <v>123</v>
+        <v>10</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="M4" s="3">
-        <v>1234</v>
-      </c>
-      <c r="N4" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+        <v>46</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="21">
       <c r="A5" s="6"/>
       <c r="B5" s="7"/>
       <c r="C5" s="1" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="1" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="H5" s="8"/>
       <c r="I5" s="3">
         <v>10</v>
       </c>
       <c r="J5" s="3">
-        <v>100</v>
-      </c>
-      <c r="K5" s="3">
-        <v>123</v>
+        <v>10</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M5" s="3">
-        <v>1234</v>
-      </c>
-      <c r="N5" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+        <v>32</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="21">
       <c r="A6" s="6"/>
       <c r="B6" s="7"/>
       <c r="C6" s="1" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="1" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="H6" s="8"/>
       <c r="I6" s="3">
         <v>6</v>
       </c>
       <c r="J6" s="3">
-        <v>60</v>
-      </c>
-      <c r="K6" s="3">
-        <v>123</v>
+        <v>10</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="M6" s="3">
-        <v>1234</v>
+        <v>46</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="N6" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18">
       <c r="A7" s="9"/>
-      <c r="B7" s="8"/>
+      <c r="B7" s="10"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="8"/>
       <c r="L7" s="8"/>
-      <c r="M7" s="10"/>
+      <c r="M7" s="8"/>
       <c r="N7" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18">
       <c r="A8" s="9"/>
-      <c r="B8" s="8"/>
+      <c r="B8" s="10"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="8"/>
       <c r="L8" s="8"/>
-      <c r="M8" s="10"/>
+      <c r="M8" s="8"/>
       <c r="N8" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="11"/>
-      <c r="B9" s="8"/>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18">
+      <c r="A9" s="12"/>
+      <c r="B9" s="10"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="8"/>
       <c r="L9" s="8"/>
-      <c r="M9" s="10"/>
+      <c r="M9" s="8"/>
       <c r="N9" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="11"/>
-      <c r="B10" s="8"/>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18">
+      <c r="A10" s="12"/>
+      <c r="B10" s="10"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="8"/>
       <c r="L10" s="8"/>
-      <c r="M10" s="10"/>
+      <c r="M10" s="8"/>
       <c r="N10" s="8"/>
     </row>
   </sheetData>
@@ -1177,38 +1283,23 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="4" width="13.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="3">
-        <v>2314</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="3">
-        <v>2314</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="3">
-        <v>2314</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="3">
-        <v>2314</v>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1221,23 +1312,30 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="5" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="13.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
       <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
+      <c r="A2" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="3">
-        <v>123124</v>
+      <c r="B2" s="3">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1250,53 +1348,17 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-  </cols>
-  <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="3">
-        <v>23</v>
-      </c>
-      <c r="B2" s="3">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="4" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="13.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1304,12 +1366,60 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="3">
-        <v>1</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="3">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/db/data_base.xlsx
+++ b/db/data_base.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="96">
   <si>
     <t>animals_name</t>
   </si>
@@ -84,6 +84,12 @@
     <t>deliver_coordinates</t>
   </si>
   <si>
+    <t>receiver_name</t>
+  </si>
+  <si>
+    <t>receiver_contact</t>
+  </si>
+  <si>
     <t>distance_km</t>
   </si>
   <si>
@@ -114,6 +120,9 @@
     <t>Times Square, 1 Matheson St, Causeway Bay</t>
   </si>
   <si>
+    <t>my mum</t>
+  </si>
+  <si>
     <t>f686c2a9-233d-4b90-978f-6fa28973d43b</t>
   </si>
   <si>
@@ -135,6 +144,9 @@
     <t>LANDMARK, 15 Queen's Road Central, Central</t>
   </si>
   <si>
+    <t>peter</t>
+  </si>
+  <si>
     <t>52afb9e4-a647-4417-90d2-8351ee950313</t>
   </si>
   <si>
@@ -156,6 +168,9 @@
     <t>D_PARK,  398 Castle Peak Rd - Tsuen Wan</t>
   </si>
   <si>
+    <t>Mary</t>
+  </si>
+  <si>
     <t>db6abe0e-6b32-4436-b7de-db1c7fa953c3</t>
   </si>
   <si>
@@ -177,6 +192,9 @@
     <t>Maritime Square, 33 Tsing King Rd, Tsing Yi</t>
   </si>
   <si>
+    <t>Sam</t>
+  </si>
+  <si>
     <t>917542c7-7c2e-4a2d-a256-199b17e7261b</t>
   </si>
   <si>
@@ -190,6 +208,9 @@
   </si>
   <si>
     <t>Citywalk,1 Yeung Uk Rd, Tsuen Wan</t>
+  </si>
+  <si>
+    <t>Ken</t>
   </si>
   <si>
     <t>bf54a164-46ee-45ec-a776-6e690994b191</t>
@@ -298,7 +319,7 @@
     <numFmt numFmtId="166" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="167" formatCode=": yymd"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -310,6 +331,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -340,7 +367,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -352,45 +379,51 @@
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="166" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="167" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="166" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="167" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
     <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -708,122 +741,122 @@
     <col min="2" max="2" style="4" width="13.005" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="4" width="13.005" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="4" width="15.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="5" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="18" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="19" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="20" width="13.005" customWidth="1" bestFit="1"/>
     <col min="7" max="7" style="4" width="13.005" customWidth="1" bestFit="1"/>
     <col min="8" max="8" style="4" width="19.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="4" width="17.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="14" width="17.290714285714284" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>63</v>
+        <v>69</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
       <c r="A2" s="1" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F2" s="17">
+        <v>77</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" s="18">
         <v>51170071</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="I2" s="8"/>
+        <v>93</v>
+      </c>
+      <c r="I2" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
       <c r="A3" s="1" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F3" s="17">
+        <v>83</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="F3" s="18">
         <v>93493702</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I3" s="8"/>
+        <v>94</v>
+      </c>
+      <c r="I3" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
       <c r="A4" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F4" s="17">
+      <c r="F4" s="18">
         <v>51906988</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I4" s="8"/>
+        <v>95</v>
+      </c>
+      <c r="I4" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -845,114 +878,114 @@
     <col min="2" max="2" style="4" width="13.005" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="4" width="13.005" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="4" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="5" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="18" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="19" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="20" width="13.005" customWidth="1" bestFit="1"/>
     <col min="7" max="7" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="8" max="8" style="4" width="13.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>63</v>
+        <v>69</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
+        <v>73</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="1" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F2" s="17">
+        <v>77</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" s="18">
         <v>51170071</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
+        <v>80</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="1" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="F3" s="18">
+        <v>93493702</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F3" s="17">
-        <v>93493702</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
-      <c r="A4" s="1" t="s">
+      <c r="D4" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="F4" s="18">
+        <v>51906988</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F4" s="17">
-        <v>51906988</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -965,33 +998,35 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="13" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="4" width="13.005" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="14" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="4" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="4" width="38.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="4" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="4" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="4" width="37.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="4" width="17.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="15" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="15" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="4" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="4" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="4" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="4" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="14" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="14" width="38.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="14" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="14" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="14" width="37.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="14" width="17.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="15" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="15" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="14" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="14" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="14" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="14" width="13.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1012,16 +1047,16 @@
       <c r="H1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>24</v>
       </c>
       <c r="M1" s="1" t="s">
@@ -1030,248 +1065,292 @@
       <c r="N1" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="O1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="21">
-      <c r="A2" s="6"/>
-      <c r="B2" s="7"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="8"/>
       <c r="C2" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="8"/>
+        <v>30</v>
+      </c>
+      <c r="E2" s="6"/>
       <c r="F2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="9">
+        <v>12345678</v>
+      </c>
+      <c r="K2" s="3">
+        <v>20</v>
+      </c>
+      <c r="L2" s="3">
+        <v>10</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="21">
+      <c r="A3" s="7"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" s="9">
+        <v>23456789</v>
+      </c>
+      <c r="K3" s="3">
+        <v>32</v>
+      </c>
+      <c r="L3" s="3">
+        <v>10</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="21">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="J4" s="9">
+        <v>34567890</v>
+      </c>
+      <c r="K4" s="3">
+        <v>45</v>
+      </c>
+      <c r="L4" s="3">
+        <v>10</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="21">
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="J5" s="9">
+        <v>12345678</v>
+      </c>
+      <c r="K5" s="3">
+        <v>10</v>
+      </c>
+      <c r="L5" s="3">
+        <v>10</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="21">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="3">
-        <v>20</v>
-      </c>
-      <c r="J2" s="3">
+      <c r="D6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="J6" s="9">
+        <v>23456789</v>
+      </c>
+      <c r="K6" s="3">
+        <v>6</v>
+      </c>
+      <c r="L6" s="3">
         <v>10</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="21">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="3">
-        <v>32</v>
-      </c>
-      <c r="J3" s="3">
-        <v>10</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="21">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H4" s="8"/>
-      <c r="I4" s="3">
-        <v>45</v>
-      </c>
-      <c r="J4" s="3">
-        <v>10</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="21">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G5" s="1" t="s">
+      <c r="M6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="N6" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="3">
-        <v>10</v>
-      </c>
-      <c r="J5" s="3">
-        <v>10</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="21">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="3">
-        <v>6</v>
-      </c>
-      <c r="J6" s="3">
-        <v>10</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="N6" s="8"/>
+      <c r="O6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P6" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18">
-      <c r="A7" s="9"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18">
-      <c r="A8" s="9"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18">
-      <c r="A9" s="12"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18">
-      <c r="A10" s="12"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/db/data_base.xlsx
+++ b/db/data_base.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="users"/>
@@ -298,7 +298,7 @@
     <numFmt numFmtId="166" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="167" formatCode=": yymd"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -310,6 +310,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -352,7 +358,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -369,28 +375,28 @@
     <xf xfId="0" numFmtId="166" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="167" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -708,14 +714,14 @@
     <col min="2" max="2" style="4" width="13.005" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="4" width="13.005" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="4" width="15.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="5" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="17" width="13.005" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="18" width="13.005" customWidth="1" bestFit="1"/>
     <col min="7" max="7" style="4" width="13.005" customWidth="1" bestFit="1"/>
     <col min="8" max="8" style="4" width="19.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="4" width="17.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="13" width="17.290714285714284" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>59</v>
       </c>
@@ -728,10 +734,10 @@
       <c r="D1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="14" t="s">
         <v>64</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -744,7 +750,7 @@
         <v>84</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="21">
       <c r="A2" s="1" t="s">
         <v>67</v>
       </c>
@@ -757,10 +763,10 @@
       <c r="D2" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="F2" s="17">
+      <c r="F2" s="16">
         <v>51170071</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -771,7 +777,7 @@
       </c>
       <c r="I2" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="21">
       <c r="A3" s="1" t="s">
         <v>74</v>
       </c>
@@ -784,10 +790,10 @@
       <c r="D3" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="F3" s="17">
+      <c r="F3" s="16">
         <v>93493702</v>
       </c>
       <c r="G3" s="1" t="s">
@@ -798,7 +804,7 @@
       </c>
       <c r="I3" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="21">
       <c r="A4" s="1" t="s">
         <v>78</v>
       </c>
@@ -811,10 +817,10 @@
       <c r="D4" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="F4" s="17">
+      <c r="F4" s="16">
         <v>51906988</v>
       </c>
       <c r="G4" s="1" t="s">
@@ -837,7 +843,7 @@
   </sheetPr>
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -845,7 +851,7 @@
     <col min="2" max="2" style="4" width="13.005" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="4" width="13.005" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="4" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="5" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="17" width="13.005" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="18" width="13.005" customWidth="1" bestFit="1"/>
     <col min="7" max="7" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="8" max="8" style="4" width="13.005" customWidth="1" bestFit="1"/>
@@ -864,10 +870,10 @@
       <c r="D1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="14" t="s">
         <v>64</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -890,10 +896,10 @@
       <c r="D2" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="F2" s="17">
+      <c r="F2" s="16">
         <v>51170071</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -916,10 +922,10 @@
       <c r="D3" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="F3" s="17">
+      <c r="F3" s="16">
         <v>93493702</v>
       </c>
       <c r="G3" s="1" t="s">
@@ -942,10 +948,10 @@
       <c r="D4" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="F4" s="17">
+      <c r="F4" s="16">
         <v>51906988</v>
       </c>
       <c r="G4" s="1" t="s">
@@ -967,31 +973,31 @@
   </sheetPr>
   <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="13" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="14" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="4" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="4" width="38.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="4" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="4" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="4" width="37.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="4" width="17.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="15" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="15" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="4" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="4" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="4" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="4" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="4" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="13" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="13" width="38.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="13" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="13" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="13" width="37.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="13" width="17.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="5" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="5" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="13" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="13" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="13" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="13" width="13.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C1" s="1" t="s">

--- a/db/data_base.xlsx
+++ b/db/data_base.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="99">
   <si>
     <t>animals_name</t>
   </si>
@@ -126,7 +126,7 @@
     <t>f686c2a9-233d-4b90-978f-6fa28973d43b</t>
   </si>
   <si>
-    <t>completed</t>
+    <t>1 pending</t>
   </si>
   <si>
     <t>de47e3d8-338b-4b4c-bc13-3ffd6c8106f3</t>
@@ -150,6 +150,9 @@
     <t>52afb9e4-a647-4417-90d2-8351ee950313</t>
   </si>
   <si>
+    <t>2 driver accepts</t>
+  </si>
+  <si>
     <t>641a1732-f6e1-4385-94e9-8e24f2c17429</t>
   </si>
   <si>
@@ -174,7 +177,7 @@
     <t>db6abe0e-6b32-4436-b7de-db1c7fa953c3</t>
   </si>
   <si>
-    <t>cancelled</t>
+    <t>3 driver delivering</t>
   </si>
   <si>
     <t>f25d018e-6f07-46de-a34d-4d8b9456883f</t>
@@ -198,6 +201,9 @@
     <t>917542c7-7c2e-4a2d-a256-199b17e7261b</t>
   </si>
   <si>
+    <t>4 receiver received</t>
+  </si>
+  <si>
     <t>b57ccb86-8291-415f-8e8e-50d8f18eecfd</t>
   </si>
   <si>
@@ -214,6 +220,9 @@
   </si>
   <si>
     <t>bf54a164-46ee-45ec-a776-6e690994b191</t>
+  </si>
+  <si>
+    <t>5 cancelled</t>
   </si>
   <si>
     <t>97689a33-ee84-44c6-a2b1-d40e5f0fc05f</t>
@@ -313,11 +322,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="165" formatCode="hh:mm"/>
-    <numFmt numFmtId="166" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="167" formatCode=": yymd"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="166" formatCode=": yymd"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -340,12 +348,17 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFffffff"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -357,55 +370,39 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
+      <left style="thin">
+        <color rgb="FFff0000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFff0000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFff0000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFff0000"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="166" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="167" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -414,20 +411,38 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf xfId="0" numFmtId="166" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -454,10 +469,10 @@
         <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="000000"/>
+        <a:srgbClr val="A7A7A7"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="535353"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="4285F4"/>
@@ -731,132 +746,198 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="4" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="4" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="4" width="15.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="19" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="20" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="4" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="4" width="19.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="14" width="17.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="6" width="15.005" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="18" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="6" width="19.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="6" width="17.290714285714284" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
       <c r="A1" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>71</v>
+        <v>73</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>74</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
       <c r="A2" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="F2" s="18">
+        <v>80</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" s="9">
         <v>51170071</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="I2" s="6"/>
+        <v>96</v>
+      </c>
+      <c r="I2" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
       <c r="A3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="F3" s="18">
+      <c r="F3" s="9">
         <v>93493702</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="I3" s="6"/>
+        <v>97</v>
+      </c>
+      <c r="I3" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
       <c r="A4" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="F4" s="18">
+        <v>90</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="F4" s="9">
         <v>51906988</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="I4" s="6"/>
+        <v>98</v>
+      </c>
+      <c r="I4" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="13.550000000000002">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="13.550000000000002">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="13.550000000000002">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="13.550000000000002">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="13.550000000000002">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="13.550000000000002">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -868,125 +949,185 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="4" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="4" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="4" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="19" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="20" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="4" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="18" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="6" width="13.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="6" width="13.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>71</v>
+        <v>73</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>74</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="F2" s="18">
+        <v>80</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" s="9">
         <v>51170071</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="F3" s="9">
+        <v>93493702</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="F3" s="18">
-        <v>93493702</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="F4" s="18">
+        <v>90</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="F4" s="9">
         <v>51906988</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>80</v>
-      </c>
+        <v>83</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="13.550000000000002">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="13.550000000000002">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="13.550000000000002">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="13.550000000000002">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="13.550000000000002">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="13.550000000000002">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1004,25 +1145,25 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="4" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="14" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="14" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="14" width="38.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="14" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="14" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="14" width="37.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="14" width="17.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="15" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="15" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="14" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="14" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="14" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="14" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="13" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="13" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="6" width="38.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="6" width="37.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="6" width="17.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="6" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="7" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="14" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="14" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="6" width="16.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="6" width="13.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -1047,10 +1188,10 @@
       <c r="H1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>22</v>
       </c>
       <c r="K1" s="2" t="s">
@@ -1072,33 +1213,33 @@
         <v>28</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="21">
-      <c r="A2" s="7"/>
-      <c r="B2" s="8"/>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="21.75">
+      <c r="A2" s="8"/>
+      <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="6"/>
+      <c r="E2" s="3"/>
       <c r="F2" s="1" t="s">
         <v>31</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6" t="s">
+      <c r="H2" s="3"/>
+      <c r="I2" s="3" t="s">
         <v>33</v>
       </c>
       <c r="J2" s="9">
-        <v>12345678</v>
-      </c>
-      <c r="K2" s="3">
+        <v>51170071</v>
+      </c>
+      <c r="K2" s="4">
         <v>20</v>
       </c>
-      <c r="L2" s="3">
+      <c r="L2" s="4">
         <v>10</v>
       </c>
       <c r="M2" s="1" t="s">
@@ -1114,243 +1255,243 @@
         <v>37</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="21">
-      <c r="A3" s="7"/>
-      <c r="B3" s="8"/>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="21.75">
+      <c r="A3" s="8"/>
+      <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="6"/>
+      <c r="E3" s="3"/>
       <c r="F3" s="1" t="s">
         <v>38</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6" t="s">
+      <c r="H3" s="3"/>
+      <c r="I3" s="3" t="s">
         <v>41</v>
       </c>
       <c r="J3" s="9">
-        <v>23456789</v>
-      </c>
-      <c r="K3" s="3">
+        <v>93493702</v>
+      </c>
+      <c r="K3" s="4">
         <v>32</v>
       </c>
-      <c r="L3" s="3">
+      <c r="L3" s="4">
         <v>10</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>42</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="21">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="21.75">
+      <c r="A4" s="8"/>
+      <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J4" s="9">
+        <v>51906988</v>
+      </c>
+      <c r="K4" s="4">
         <v>45</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G4" s="1" t="s">
+      <c r="L4" s="4">
+        <v>10</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="21.75">
+      <c r="A5" s="8"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="J4" s="9">
-        <v>34567890</v>
-      </c>
-      <c r="K4" s="3">
-        <v>45</v>
-      </c>
-      <c r="L4" s="3">
+      <c r="D5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" s="9">
+        <v>51170071</v>
+      </c>
+      <c r="K5" s="4">
         <v>10</v>
       </c>
-      <c r="M4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="21">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="J5" s="9">
-        <v>12345678</v>
-      </c>
-      <c r="K5" s="3">
+      <c r="L5" s="4">
         <v>10</v>
       </c>
-      <c r="L5" s="3">
-        <v>10</v>
-      </c>
       <c r="M5" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="21">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="21.75">
+      <c r="A6" s="8"/>
+      <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E6" s="6"/>
+        <v>63</v>
+      </c>
+      <c r="E6" s="3"/>
       <c r="F6" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="J6" s="9">
-        <v>23456789</v>
-      </c>
-      <c r="K6" s="3">
+        <v>51906988</v>
+      </c>
+      <c r="K6" s="4">
         <v>6</v>
       </c>
-      <c r="L6" s="3">
+      <c r="L6" s="4">
         <v>10</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="P6" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18">
+        <v>68</v>
+      </c>
+      <c r="P6" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18">
-      <c r="A9" s="13"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18">
-      <c r="A10" s="13"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+      <c r="A9" s="12"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+      <c r="A10" s="12"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1362,24 +1503,92 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="4" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="8.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="6" width="8.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="6" width="8.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="6" width="8.862142857142858" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="13.550000000000002">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="13.550000000000002">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="13.550000000000002">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="13.550000000000002">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="13.550000000000002">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="13.550000000000002">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="13.550000000000002">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="13.550000000000002">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1391,14 +1600,17 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="7" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="6" width="8.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="6" width="8.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="6" width="8.862142857142858" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
@@ -1408,14 +1620,76 @@
       <c r="B1" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
-      <c r="A2" s="3">
+      <c r="A2" s="4">
         <v>5</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="4">
         <v>30</v>
       </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="13.550000000000002">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="13.550000000000002">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="13.550000000000002">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="13.550000000000002">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="13.550000000000002">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="13.550000000000002">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="13.550000000000002">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="13.550000000000002">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1427,14 +1701,17 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="4" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="6" width="8.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="6" width="8.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="6" width="8.862142857142858" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
@@ -1444,62 +1721,100 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="4">
         <v>40</v>
       </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="4">
         <v>40</v>
       </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="4">
         <v>30</v>
       </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="4">
         <v>30</v>
       </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="4">
         <v>30</v>
       </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="4">
         <v>30</v>
       </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="4">
         <v>30</v>
       </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="13.550000000000002">
+      <c r="A9" s="3"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="13.550000000000002">
+      <c r="A10" s="3"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/db/data_base.xlsx
+++ b/db/data_base.xlsx
@@ -343,7 +343,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -388,7 +388,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -406,10 +406,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -426,7 +429,7 @@
     <xf xfId="0" numFmtId="166" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -437,12 +440,6 @@
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -757,7 +754,7 @@
     <col min="3" max="3" style="6" width="13.005" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="6" width="15.005" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="18" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="14" width="13.005" customWidth="1" bestFit="1"/>
     <col min="7" max="7" style="6" width="13.005" customWidth="1" bestFit="1"/>
     <col min="8" max="8" style="6" width="19.14785714285714" customWidth="1" bestFit="1"/>
     <col min="9" max="9" style="6" width="17.290714285714284" customWidth="1" bestFit="1"/>
@@ -779,7 +776,7 @@
       <c r="E1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="16" t="s">
         <v>74</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -805,10 +802,10 @@
       <c r="D2" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="10">
         <v>51170071</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -832,10 +829,10 @@
       <c r="D3" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="10">
         <v>93493702</v>
       </c>
       <c r="G3" s="1" t="s">
@@ -859,10 +856,10 @@
       <c r="D4" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="10">
         <v>51906988</v>
       </c>
       <c r="G4" s="1" t="s">
@@ -879,7 +876,7 @@
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
-      <c r="F5" s="17"/>
+      <c r="F5" s="8"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -890,7 +887,7 @@
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
-      <c r="F6" s="17"/>
+      <c r="F6" s="8"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -901,7 +898,7 @@
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
-      <c r="F7" s="17"/>
+      <c r="F7" s="8"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -912,7 +909,7 @@
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
-      <c r="F8" s="17"/>
+      <c r="F8" s="8"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -923,7 +920,7 @@
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
-      <c r="F9" s="17"/>
+      <c r="F9" s="8"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
@@ -934,7 +931,7 @@
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="17"/>
+      <c r="F10" s="8"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -960,7 +957,7 @@
     <col min="3" max="3" style="6" width="13.005" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="6" width="13.005" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="18" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="14" width="13.005" customWidth="1" bestFit="1"/>
     <col min="7" max="7" style="6" width="13.719285714285713" customWidth="1" bestFit="1"/>
     <col min="8" max="8" style="6" width="13.005" customWidth="1" bestFit="1"/>
   </cols>
@@ -981,7 +978,7 @@
       <c r="E1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="16" t="s">
         <v>74</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -1004,10 +1001,10 @@
       <c r="D2" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="10">
         <v>51170071</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -1030,10 +1027,10 @@
       <c r="D3" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="10">
         <v>93493702</v>
       </c>
       <c r="G3" s="1" t="s">
@@ -1056,10 +1053,10 @@
       <c r="D4" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="10">
         <v>51906988</v>
       </c>
       <c r="G4" s="1" t="s">
@@ -1075,7 +1072,7 @@
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
-      <c r="F5" s="17"/>
+      <c r="F5" s="8"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
@@ -1085,7 +1082,7 @@
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
-      <c r="F6" s="17"/>
+      <c r="F6" s="8"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
@@ -1095,7 +1092,7 @@
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
-      <c r="F7" s="17"/>
+      <c r="F7" s="8"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
@@ -1105,7 +1102,7 @@
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
-      <c r="F8" s="17"/>
+      <c r="F8" s="8"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
     </row>
@@ -1115,7 +1112,7 @@
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
-      <c r="F9" s="17"/>
+      <c r="F9" s="8"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>
@@ -1125,7 +1122,7 @@
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="17"/>
+      <c r="F10" s="8"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
     </row>
@@ -1145,8 +1142,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="13" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="13" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="13.005" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="6" width="13.005" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="6" width="38.14785714285715" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="6" width="13.005" customWidth="1" bestFit="1"/>
@@ -1154,16 +1151,16 @@
     <col min="7" max="7" style="6" width="37.14785714285715" customWidth="1" bestFit="1"/>
     <col min="8" max="8" style="6" width="17.719285714285714" customWidth="1" bestFit="1"/>
     <col min="9" max="9" style="6" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="7" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="14" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="14" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="14" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="15" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="15" width="13.005" customWidth="1" bestFit="1"/>
     <col min="13" max="13" style="6" width="13.005" customWidth="1" bestFit="1"/>
     <col min="14" max="14" style="6" width="16.290714285714284" customWidth="1" bestFit="1"/>
     <col min="15" max="15" style="6" width="13.005" customWidth="1" bestFit="1"/>
     <col min="16" max="16" style="6" width="13.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -1191,7 +1188,7 @@
       <c r="I1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="8" t="s">
         <v>22</v>
       </c>
       <c r="K1" s="2" t="s">
@@ -1213,8 +1210,8 @@
         <v>28</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="21.75">
-      <c r="A2" s="8"/>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="21">
+      <c r="A2" s="9"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
         <v>29</v>
@@ -1233,7 +1230,7 @@
       <c r="I2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="J2" s="9">
+      <c r="J2" s="10">
         <v>51170071</v>
       </c>
       <c r="K2" s="4">
@@ -1255,8 +1252,8 @@
         <v>37</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="21.75">
-      <c r="A3" s="8"/>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="21">
+      <c r="A3" s="9"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
         <v>38</v>
@@ -1275,7 +1272,7 @@
       <c r="I3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3" s="10">
         <v>93493702</v>
       </c>
       <c r="K3" s="4">
@@ -1297,8 +1294,8 @@
         <v>45</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="21.75">
-      <c r="A4" s="8"/>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="21">
+      <c r="A4" s="9"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
         <v>46</v>
@@ -1317,7 +1314,7 @@
       <c r="I4" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="10">
         <v>51906988</v>
       </c>
       <c r="K4" s="4">
@@ -1339,8 +1336,8 @@
         <v>54</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="21.75">
-      <c r="A5" s="8"/>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="21">
+      <c r="A5" s="9"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
         <v>48</v>
@@ -1359,7 +1356,7 @@
       <c r="I5" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="10">
         <v>51170071</v>
       </c>
       <c r="K5" s="4">
@@ -1381,8 +1378,8 @@
         <v>62</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="21.75">
-      <c r="A6" s="8"/>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="21">
+      <c r="A6" s="9"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
         <v>29</v>
@@ -1401,7 +1398,7 @@
       <c r="I6" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J6" s="10">
         <v>51906988</v>
       </c>
       <c r="K6" s="4">
@@ -1421,8 +1418,8 @@
       </c>
       <c r="P6" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="10"/>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+      <c r="A7" s="11"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -1432,15 +1429,15 @@
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="5"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="10"/>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+      <c r="A8" s="11"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -1450,15 +1447,15 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="5"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="12"/>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+      <c r="A9" s="13"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -1468,15 +1465,15 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="5"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="12"/>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="20.25">
+      <c r="A10" s="13"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -1486,8 +1483,8 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="5"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
